--- a/Asset.xlsx
+++ b/Asset.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="22">
   <si>
     <t>이름</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -26,43 +26,83 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Dinner Enviroment</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>우선순위</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>총액</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>YesNoin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이유</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>패스트푸드 맵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>짝맞추기 게임용 카드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마트 바코드리더기 및 화면</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마트 맵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>병원 맵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바닥 머트리얼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">의자 및 가구 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스토어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>언리얼 마켓 플레이스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Diner Environment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Memory Pairslike Gamekit Template</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cash Registers</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Supermarket</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Cash Registers</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Memory Pairslike Gamekit Template</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Modular Buildings</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>차액</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>총액</t>
+    <t>Diverse Tile Mater</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Interior Props</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Diverse Tile Material Pack</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -70,7 +110,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -83,6 +123,15 @@
       <sz val="8"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
@@ -109,7 +158,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -117,6 +166,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -420,134 +475,189 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.25" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="44.625" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="9" style="1"/>
+    <col min="3" max="3" width="9" style="1"/>
+    <col min="4" max="4" width="25.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" ht="31.5" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="4"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="2">
+        <v>25760</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="2">
+        <v>45100</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="2">
+      <c r="B5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="2">
+        <v>14160</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="2">
+        <v>64400</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="2">
+        <v>32220</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="2">
+        <v>6430</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="2">
         <v>25760</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="2">
-        <v>45100</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
+      <c r="D9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C10" s="2"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="2">
-        <v>14160</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="2">
-        <v>64400</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="2">
-        <v>32220</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="2">
-        <v>6430</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="2">
-        <v>25760</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C9" s="2"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C10" s="2"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" s="2">
-        <f>SUM(C2:C10)</f>
+      <c r="B11" s="2">
+        <f>SUM(C3:C9)</f>
         <v>213830</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" s="2">
-        <f xml:space="preserve"> 200000 - B12</f>
-        <v>-13830</v>
-      </c>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B13" s="2"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
